--- a/hw2/results/raw.xlsx
+++ b/hw2/results/raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>astar_163B</t>
   </si>
@@ -150,8 +150,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -178,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -189,6 +195,9 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -199,6 +208,9 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -232,11 +244,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lru</c:v>
+                  <c:v>srrip_2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,133 +263,34 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srrip_2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -392,613 +305,34 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srrip_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>constant</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>round_robin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>simulate_opt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2134545160"/>
-        <c:axId val="2134144152"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2134545160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134144152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2134144152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134545160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srrip_2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>astar_163B</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cactusADM_734B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gcc_13B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>milc_360B</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,34 +362,34 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,34 +404,34 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.9</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,6 +500,684 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srrip_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srrip_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round_robin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simulate_opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2141323368"/>
+        <c:axId val="-2145701224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2141323368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145701224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145701224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141323368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1192,11 +1204,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>constant</c:v>
+                  <c:v>lru</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1211,76 +1223,76 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.4</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.2</c:v>
+                  <c:v>17.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.8</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>18.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.4</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.7</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.8</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.5</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,11 +1303,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>round_robin</c:v>
+                  <c:v>srrip_2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,76 +1322,175 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$13</c:f>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2</c:v>
+                  <c:v>9.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.6</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.1</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.9</c:v>
+                  <c:v>24.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.7</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.2</c:v>
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simulate_opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>astar_163B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cactusADM_734B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc_13B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>leslie3d_1116B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>milc_360B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lbm_94B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GemsFDTD_109B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>libquantum_1210B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144042760"/>
-        <c:axId val="-2144040488"/>
+        <c:axId val="-2140373176"/>
+        <c:axId val="-2142470168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144042760"/>
+        <c:axId val="-2140373176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144040488"/>
+        <c:crossAx val="-2142470168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144040488"/>
+        <c:axId val="-2142470168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144042760"/>
+        <c:crossAx val="-2140373176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1493,34 +1604,34 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,34 +1646,34 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.6</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.1</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,11 +1684,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>srrip_2</c:v>
+                  <c:v>constant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1592,76 +1703,76 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:f>Sheet1!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.5</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.1</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.0</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.7</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.9</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.0</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.9</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,11 +1783,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simulate_opt</c:v>
+                  <c:v>round_robin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,76 +1802,76 @@
                   <c:v>astar_163B</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sphinx3_2520B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cactusADM_734B</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>GemsFDTD_109B</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>omnetpp_340B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>gcc_13B</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>lbm_94B</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>leslie3d_1116B</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>milc_360B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>omnetpp_340B</c:v>
+                  <c:v>lbm_94B</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sphinx3_2520B</c:v>
+                  <c:v>GemsFDTD_109B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average</c:v>
+                  <c:v>libquantum_1210B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:f>Sheet1!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>8.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.2</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.8</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.9</c:v>
+                  <c:v>18.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.4</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.4</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.2</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,11 +1886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141873832"/>
-        <c:axId val="-2141872424"/>
+        <c:axId val="-2142303432"/>
+        <c:axId val="-2140516488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141873832"/>
+        <c:axId val="-2142303432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141872424"/>
+        <c:crossAx val="-2140516488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1796,7 +1907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141872424"/>
+        <c:axId val="-2140516488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141873832"/>
+        <c:crossAx val="-2142303432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1833,20 +1944,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1863,20 +1974,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1893,20 +2004,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1923,20 +2034,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2279,7 +2390,7 @@
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2338,7 +2449,7 @@
         <v>1.3</v>
       </c>
       <c r="I3">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2349,25 +2460,25 @@
         <v>8.6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="E4" s="2">
-        <v>8.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F4">
-        <v>8.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="H4">
-        <v>8.1999999999999993</v>
+        <v>3.7</v>
       </c>
       <c r="I4">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2378,25 +2489,25 @@
         <v>30.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>28.6</v>
+        <v>8.6</v>
       </c>
       <c r="E5" s="2">
-        <v>28.5</v>
+        <v>8.6</v>
       </c>
       <c r="F5">
-        <v>28.5</v>
+        <v>8.6</v>
       </c>
       <c r="G5">
-        <v>30.4</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>27.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I5">
-        <v>30.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2407,25 +2518,25 @@
         <v>15.2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>18.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>18.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>18.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>17.2</v>
+        <v>19.8</v>
       </c>
       <c r="H6">
-        <v>18.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="I6">
-        <v>15.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2436,25 +2547,25 @@
         <v>23.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>31</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G7">
-        <v>30.8</v>
+        <v>18.5</v>
       </c>
       <c r="H7">
-        <v>30.4</v>
+        <v>18.2</v>
       </c>
       <c r="I7">
-        <v>23.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2465,25 +2576,25 @@
         <v>17.899999999999999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>24.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>24.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F8">
-        <v>24.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>17.2</v>
       </c>
       <c r="H8">
-        <v>24.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I8">
-        <v>17.899999999999999</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2494,25 +2605,25 @@
         <v>28.4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>29.9</v>
+        <v>24.8</v>
       </c>
       <c r="E9" s="2">
-        <v>29.9</v>
+        <v>24.7</v>
       </c>
       <c r="F9">
-        <v>29.9</v>
+        <v>24.7</v>
       </c>
       <c r="G9">
-        <v>28.4</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>29.9</v>
+        <v>24.1</v>
       </c>
       <c r="I9">
-        <v>28.4</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2552,25 +2663,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>17.100000000000001</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G11">
-        <v>19.8</v>
+        <v>30.8</v>
       </c>
       <c r="H11">
-        <v>17.7</v>
+        <v>30.4</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2581,25 +2692,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>9.5</v>
+        <v>28.6</v>
       </c>
       <c r="E12" s="2">
-        <v>9.3000000000000007</v>
+        <v>28.5</v>
       </c>
       <c r="F12">
-        <v>9.3000000000000007</v>
+        <v>28.5</v>
       </c>
       <c r="G12">
-        <v>4.7</v>
+        <v>30.4</v>
       </c>
       <c r="H12">
-        <v>3.7</v>
+        <v>27.6</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2610,33 +2721,36 @@
         <v>16.2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>29.9</v>
       </c>
       <c r="E13" s="2">
-        <v>18.899999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="F13">
-        <v>18.899999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="G13">
-        <v>18.5</v>
+        <v>28.4</v>
       </c>
       <c r="H13">
-        <v>18.2</v>
+        <v>29.9</v>
       </c>
       <c r="I13">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>0.51300000000000001</v>
       </c>
@@ -2646,8 +2760,14 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>0.41799999999999998</v>
       </c>
@@ -2657,8 +2777,14 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <v>0.442</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>0.36699999999999999</v>
       </c>
@@ -2668,8 +2794,14 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>0.24299999999999999</v>
       </c>
@@ -2679,8 +2811,14 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>0.50900000000000001</v>
       </c>
@@ -2690,8 +2828,14 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>0.50700000000000001</v>
       </c>
@@ -2701,8 +2845,14 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>0.28599999999999998</v>
       </c>
@@ -2712,8 +2862,14 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>0.47399999999999998</v>
       </c>
@@ -2723,8 +2879,14 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>0.24399999999999999</v>
       </c>
@@ -2734,8 +2896,14 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>0.745</v>
       </c>
@@ -2745,8 +2913,14 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.43099999999999999</v>
       </c>
@@ -2754,6 +2928,12 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G32" t="s">
         <v>10</v>
       </c>
     </row>
